--- a/src/main/resources/testFile.xlsx
+++ b/src/main/resources/testFile.xlsx
@@ -170,7 +170,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -199,11 +199,16 @@
       <c r="B2" s="0" t="n">
         <v>5678</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="n">
         <v>12042019</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/testFile.xlsx
+++ b/src/main/resources/testFile.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">firstColumn</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">targetColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noValueBelow</t>
   </si>
 </sst>
 </file>
@@ -39,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -61,12 +64,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,16 +108,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,10 +160,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -191,6 +184,9 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -203,7 +199,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>12042019</v>
       </c>
     </row>

--- a/src/main/resources/testFile.xlsx
+++ b/src/main/resources/testFile.xlsx
@@ -42,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,6 +64,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,12 +114,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -197,15 +207,17 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="n">
         <v>12042019</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/testFile.xlsx
+++ b/src/main/resources/testFile.xlsx
@@ -42,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,12 +64,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,16 +108,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,7 +198,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>12042019</v>
       </c>
     </row>

--- a/src/main/resources/testFile.xlsx
+++ b/src/main/resources/testFile.xlsx
@@ -42,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,6 +64,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,12 +114,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -163,7 +173,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -195,13 +205,11 @@
       <c r="B2" s="0" t="n">
         <v>5678</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2" t="n">
+        <v>12042019</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="n">
-        <v>12042019</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
